--- a/DataGenerator/excel/config.xlsx
+++ b/DataGenerator/excel/config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>暗雷概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始能量值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +435,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -485,7 +489,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
